--- a/SwagLabs/src/test/resource/swaglabs.xlsx
+++ b/SwagLabs/src/test/resource/swaglabs.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -125,7 +125,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,10 +473,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
